--- a/src/assets/files/price.xlsx
+++ b/src/assets/files/price.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
   <si>
     <t>№</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Самоподвоз</t>
   </si>
   <si>
-    <t>от 100                       до 500 кг</t>
-  </si>
-  <si>
     <t>от 500кг                  до 1 тонны</t>
   </si>
   <si>
@@ -73,24 +70,15 @@
     <t>Кеги</t>
   </si>
   <si>
-    <t xml:space="preserve">Пластиковые канистры </t>
-  </si>
-  <si>
     <t xml:space="preserve">Банки алюминиевые </t>
   </si>
   <si>
     <t>Пластиковая тара из под бытовой химии</t>
   </si>
   <si>
-    <t>4,5-5</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
-    <t>3-5</t>
-  </si>
-  <si>
     <t>по дог.</t>
   </si>
   <si>
@@ -103,33 +91,15 @@
     <t>10-12</t>
   </si>
   <si>
-    <t>7-10</t>
-  </si>
-  <si>
-    <t>2,5-3,0</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Масло фритюрное</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t xml:space="preserve">7-8 </t>
-  </si>
-  <si>
     <t>5-6</t>
   </si>
   <si>
-    <t>5-5,5</t>
-  </si>
-  <si>
-    <t>6-12</t>
-  </si>
-  <si>
     <t>Газеты</t>
   </si>
   <si>
@@ -145,9 +115,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>1,5</t>
-  </si>
-  <si>
     <t>Стекло листовое прозрачное</t>
   </si>
   <si>
@@ -176,6 +143,30 @@
   </si>
   <si>
     <t>13-15</t>
+  </si>
+  <si>
+    <t>от 100                       до 200 кг</t>
+  </si>
+  <si>
+    <t>от 200                       до 500 кг</t>
+  </si>
+  <si>
+    <t>дог</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ПЭТ из-под масла</t>
+  </si>
+  <si>
+    <t>8,5</t>
+  </si>
+  <si>
+    <t>6,5</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -192,7 +183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,12 +202,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -375,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -460,15 +445,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,28 +747,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="55.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>1</v>
@@ -800,70 +777,78 @@
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" s="3">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="E4" s="3">
-        <v>3</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="14"/>
-    </row>
-    <row r="5" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>5.5</v>
@@ -872,389 +857,440 @@
         <v>6</v>
       </c>
       <c r="E5" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3">
+        <v>7</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>6</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3">
         <v>4</v>
       </c>
       <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3">
         <v>5</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>5.5</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3">
         <v>4.5</v>
       </c>
       <c r="D8" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="E8" s="3">
         <v>5</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5.5</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="10">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3">
         <v>10</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>12</v>
       </c>
-      <c r="E9" s="3">
-        <v>14</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="10">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" s="10">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3">
-        <v>12</v>
-      </c>
-      <c r="E10" s="3">
-        <v>14</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="C11" s="3">
         <v>6</v>
       </c>
       <c r="D11" s="3">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3">
         <v>7</v>
       </c>
-      <c r="E11" s="3">
-        <v>8</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="3">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C16" s="3">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3">
         <v>6</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F16" s="3">
         <v>7</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="3">
-        <v>15</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="C17" s="3">
         <v>5</v>
       </c>
       <c r="D17" s="3">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
         <v>6</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E18" s="3">
-        <v>7</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3">
         <v>5</v>
       </c>
       <c r="D19" s="3">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
         <v>6</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>7</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E20" s="3">
         <v>1.2</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>18</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="30">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="3">
         <v>2</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="3">
         <v>2</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="3">
         <v>2</v>
       </c>
-      <c r="F21" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -1265,99 +1301,111 @@
       <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
+        <v>21</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="11">
+        <v>8</v>
+      </c>
+      <c r="D23" s="11">
+        <v>8</v>
+      </c>
+      <c r="E23" s="11">
+        <v>10</v>
+      </c>
+      <c r="F23" s="11">
+        <v>12</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="11">
-        <v>8</v>
-      </c>
-      <c r="D23" s="11">
-        <v>10</v>
-      </c>
-      <c r="E23" s="11">
-        <v>12</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C24" s="11">
         <v>10</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>25</v>
+      <c r="D24" s="11">
+        <v>10</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="21"/>
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-    </row>
-    <row r="27" spans="1:8" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="24"/>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="1:9" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="26"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
-      <c r="G27" s="28"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H30" t="s">
-        <v>33</v>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A25:G27"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A25:H27"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.28000000000000003" bottom="0.22" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/src/assets/files/price.xlsx
+++ b/src/assets/files/price.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="330" windowWidth="18915" windowHeight="11535"/>
+    <workbookView xWindow="240" yWindow="390" windowWidth="18915" windowHeight="11475"/>
   </bookViews>
   <sheets>
     <sheet name="Лист5" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
   <si>
     <t>№</t>
   </si>
@@ -166,7 +166,13 @@
     <t>6,5</t>
   </si>
   <si>
-    <t>6</t>
+    <t>Текстиль</t>
+  </si>
+  <si>
+    <t>0,70</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -747,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,19 +830,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="3">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D4" s="3">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E4" s="3">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>8</v>
@@ -1337,7 +1343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -1363,40 +1369,66 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+    <row r="25" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>23</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="25"/>
-    </row>
-    <row r="27" spans="1:9" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="28"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I30" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="22"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="1:9" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="26"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1405,7 +1437,7 @@
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A25:H27"/>
+    <mergeCell ref="A26:H28"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.28000000000000003" bottom="0.22" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/src/assets/files/price.xlsx
+++ b/src/assets/files/price.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="390" windowWidth="18915" windowHeight="11475"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14130"/>
   </bookViews>
   <sheets>
     <sheet name="Лист5" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
   <si>
     <t>№</t>
   </si>
@@ -97,9 +102,6 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>5-6</t>
-  </si>
-  <si>
     <t>Газеты</t>
   </si>
   <si>
@@ -173,12 +175,15 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>6-7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -461,6 +466,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -509,7 +517,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -544,7 +552,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -756,7 +764,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,10 +812,10 @@
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>4</v>
@@ -833,16 +841,16 @@
         <v>4.5</v>
       </c>
       <c r="D4" s="3">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="E4" s="3">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>8</v>
@@ -869,7 +877,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>8</v>
@@ -880,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -895,7 +903,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>8</v>
@@ -906,22 +914,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="3">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E7" s="3">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3">
-        <v>5.5</v>
+        <v>6</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>8</v>
@@ -932,22 +940,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="E8" s="3">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3">
-        <v>5.5</v>
+        <v>6</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>8</v>
@@ -970,10 +978,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>8</v>
@@ -996,10 +1004,10 @@
         <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>8</v>
@@ -1022,10 +1030,10 @@
         <v>7</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>8</v>
@@ -1048,10 +1056,10 @@
         <v>2.5</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>8</v>
@@ -1114,7 +1122,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>24</v>
@@ -1155,7 +1163,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>8</v>
@@ -1166,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="3">
         <v>5</v>
@@ -1181,7 +1189,7 @@
         <v>7</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>8</v>
@@ -1192,7 +1200,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
@@ -1207,7 +1215,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>8</v>
@@ -1218,7 +1226,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3">
         <v>5</v>
@@ -1233,7 +1241,7 @@
         <v>7</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>8</v>
@@ -1244,7 +1252,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -1259,7 +1267,7 @@
         <v>1.4</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>8</v>
@@ -1270,7 +1278,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
@@ -1285,7 +1293,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
@@ -1296,7 +1304,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -1322,7 +1330,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11">
         <v>8</v>
@@ -1374,7 +1382,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="11">
         <v>0</v>
@@ -1389,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>8</v>
@@ -1397,7 +1405,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
